--- a/Data/08_Folkehelse og levekår/Skader og ulykker/12044_Drepte_skadde_osv.xlsx
+++ b/Data/08_Folkehelse og levekår/Skader og ulykker/12044_Drepte_skadde_osv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eve1509\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vtfk-my.sharepoint.com/personal/even_sannes_riiser_vtfk_no/Documents/Github/Telemark/Data/08_Folkehelse og levekår/Skader og ulykker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DFAB8B4-6BBA-48D6-A184-1156FB2FA3E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{5DFAB8B4-6BBA-48D6-A184-1156FB2FA3E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B6EED60-9936-4311-B81A-1F534EF313D8}"/>
   <bookViews>
-    <workbookView xWindow="19305" yWindow="30" windowWidth="38175" windowHeight="20925" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="53835" yWindow="30" windowWidth="23040" windowHeight="20925" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Drepte" sheetId="2" r:id="rId1"/>
@@ -301,7 +301,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="54">
   <si>
     <t>Drepte</t>
   </si>
@@ -460,6 +460,9 @@
   </si>
   <si>
     <t>År</t>
+  </si>
+  <si>
+    <t>Snitt siden 2009</t>
   </si>
 </sst>
 </file>
@@ -4953,13 +4956,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EBBC484-34ED-4FBA-8522-93EC7044BF49}">
-  <dimension ref="B1:M51"/>
+  <dimension ref="B1:M53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="B28:C28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
@@ -6035,6 +6042,22 @@
       </c>
       <c r="H51">
         <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53">
+        <f>AVERAGE(C39:C51)</f>
+        <v>33.769230769230766</v>
+      </c>
+      <c r="G53" t="s">
+        <v>53</v>
+      </c>
+      <c r="H53">
+        <f>AVERAGE(H39:H51)</f>
+        <v>32.46153846153846</v>
       </c>
     </row>
   </sheetData>
@@ -6050,8 +6073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD0583B9-6006-427D-884B-A3204621E25A}">
   <dimension ref="A1:AD51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD3" sqref="AD3"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8095,8 +8118,8 @@
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
-        <v>26</v>
+      <c r="B29" s="1">
+        <v>1999</v>
       </c>
       <c r="C29">
         <v>571</v>
